--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannah/Dropbox/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="51140" yWindow="5180" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="39060" yWindow="1560" windowWidth="28800" windowHeight="17460" tabRatio="500" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="LDGwasYeast" sheetId="1" r:id="rId1"/>
     <sheet name="SimulateDataParameters" sheetId="3" r:id="rId2"/>
-    <sheet name="SimulateDataValues" sheetId="2" r:id="rId3"/>
-    <sheet name="LMMOverview" sheetId="5" r:id="rId4"/>
-    <sheet name="CalibrationSummary" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="FDCovariates" sheetId="15" r:id="rId3"/>
+    <sheet name="imputationQC" sheetId="13" r:id="rId4"/>
+    <sheet name="Association3Dheart" sheetId="14" r:id="rId5"/>
+    <sheet name="SimulateDataValues" sheetId="2" r:id="rId6"/>
+    <sheet name="SimulateDimRedNoise" sheetId="12" r:id="rId7"/>
+    <sheet name="LMMOverview" sheetId="5" r:id="rId8"/>
+    <sheet name="CalibrationSummary" sheetId="4" r:id="rId9"/>
+    <sheet name="HighDimMethods" sheetId="6" r:id="rId10"/>
+    <sheet name="HighDimR" sheetId="7" r:id="rId11"/>
+    <sheet name="QC_combined" sheetId="8" r:id="rId12"/>
+    <sheet name="QC_SNPs" sheetId="9" r:id="rId13"/>
+    <sheet name="QC_samples" sheetId="10" r:id="rId14"/>
+    <sheet name="GenotypesSummary" sheetId="11" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="calibrationSummaryTable" localSheetId="4">CalibrationSummary!$A$2:$H$14</definedName>
-    <definedName name="ExternalData_1" localSheetId="4">CalibrationSummary!$A$2:$D$8</definedName>
+    <definedName name="calibrationSummaryTable" localSheetId="8">CalibrationSummary!$A$2:$H$14</definedName>
+    <definedName name="ExternalData_1" localSheetId="8">CalibrationSummary!$A$2:$D$8</definedName>
+    <definedName name="pqtlExX_multitrait_psig5e08" localSheetId="4">Association3Dheart!$A$1:$F$4</definedName>
     <definedName name="significant_tagSNPs" localSheetId="0">LDGwasYeast!$A$2:$G$6</definedName>
+    <definedName name="SNPsPerChr_1" localSheetId="3">imputationQC!$A$1:$F$27</definedName>
+    <definedName name="SNPsPerChr_LatexFormat_1" localSheetId="3">imputationQC!$H$1:$M$23</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +51,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="calibrationSummaryTable" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/hannah/GWAS/data/LiMMBo/Calibration/calibrationSummaryTable.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/hannah/GWAS/data/LiMMBo/Calibration/calibrationSummaryTable.csv" comma="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -53,7 +65,7 @@
     </textPr>
   </connection>
   <connection id="2" name="calibrationSummaryTable1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/hannah/GWAS/data/LiMMBo/Calibration/calibrationSummaryTable.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/hannah/GWAS/data/LiMMBo/Calibration/calibrationSummaryTable.csv" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -62,7 +74,23 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="significant_tagSNPs" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="3" name="pqtlExX_multitrait_psig5e08" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/hannah/GWAS/data/GWAS/LIMIX/HVOL/ManifoldLearning/Combined/pqtlExX_multitrait_psig5e08.txt" tab="0" space="1" consecutive="1">
+      <textFields count="10">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="significant_tagSNPs" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/hannah/GWAS/data/LiMMBo/feasabilityBootstrap/yeast/GWAS/significant_tagSNPs.txt">
       <textFields count="12">
         <textField/>
@@ -80,11 +108,35 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="5" name="SNPsPerChr" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/hannah/GWAS/data/genotype/imputed/20160705_phenotype.it2/genotypes/HVOL/SNPsPerChr.txt" comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="SNPsPerChr_LatexFormat" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/hannah/GWAS/data/genotype/imputed/20160705_phenotype.it2/genotypes/HVOL/SNPsPerChr_LatexFormat.csv" comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="464">
   <si>
     <t>All SNPs</t>
   </si>
@@ -101,21 +153,6 @@
     <t>multitrait:singletrait</t>
   </si>
   <si>
-    <t>3kb</t>
-  </si>
-  <si>
-    <t>10kb</t>
-  </si>
-  <si>
-    <t>30kb</t>
-  </si>
-  <si>
-    <t>50kb</t>
-  </si>
-  <si>
-    <t>100kb</t>
-  </si>
-  <si>
     <t>LD pruned with $r^2 \ge 0.2$</t>
   </si>
   <si>
@@ -269,9 +306,6 @@
     <t>\citep{Lippert2011}</t>
   </si>
   <si>
-    <t>GRAMMAR-Gamma</t>
-  </si>
-  <si>
     <t>\citep{Svishcheva2012}</t>
   </si>
   <si>
@@ -317,24 +351,12 @@
     <t>\(O(n^3 + n^2d  + s(n^2 + t_1nd^2 + t_2nc^2d^6))\)</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>\(O(\frac{s}{c^3}n^3)\)</t>
   </si>
   <si>
     <t>Reference</t>
   </si>
   <si>
-    <t>\(\sim 30\)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>\(O(n^3 + sn^2)\)</t>
   </si>
   <si>
@@ -434,9 +456,6 @@
     <t>\(O(N^3 + N^2 + t(NP^2 + NP^4)\)</t>
   </si>
   <si>
-    <t>\(&lt;\)5E-08</t>
-  </si>
-  <si>
     <t>Significance level</t>
   </si>
   <si>
@@ -450,13 +469,1202 @@
   </si>
   <si>
     <t>mvLMM</t>
+  </si>
+  <si>
+    <t>DiffusionMaps</t>
+  </si>
+  <si>
+    <t>DRR</t>
+  </si>
+  <si>
+    <t>ICA</t>
+  </si>
+  <si>
+    <t>LLE</t>
+  </si>
+  <si>
+    <t>Isomap</t>
+  </si>
+  <si>
+    <t>Laplacian Eigenmaps</t>
+  </si>
+  <si>
+    <t>MDS</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>kPCA</t>
+  </si>
+  <si>
+    <t>tSNE</t>
+  </si>
+  <si>
+    <t>PEER</t>
+  </si>
+  <si>
+    <t>non-linear</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>\citep{Laparra2015}</t>
+  </si>
+  <si>
+    <t>\citep{Ridder2002}</t>
+  </si>
+  <si>
+    <t>\citep{Tenenbaum2000}</t>
+  </si>
+  <si>
+    <t>peer</t>
+  </si>
+  <si>
+    <t>\citep{Stegle2010}</t>
+  </si>
+  <si>
+    <t>nMDS</t>
+  </si>
+  <si>
+    <t>\citep{Ripley1996}</t>
+  </si>
+  <si>
+    <t>\citep{Gower1966}</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>\citep{Hoteling1933}</t>
+  </si>
+  <si>
+    <t>\citep{Hyvarinen2000}</t>
+  </si>
+  <si>
+    <t>\citep{Maaten2008}</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>\citep{Lafon2006}</t>
+  </si>
+  <si>
+    <t>\citep{Schoelkopf1998}</t>
+  </si>
+  <si>
+    <t>Ordination-based</t>
+  </si>
+  <si>
+    <t>Factor analysis</t>
+  </si>
+  <si>
+    <t>Generative model</t>
+  </si>
+  <si>
+    <t>Kernel eigenmap</t>
+  </si>
+  <si>
+    <t>Probability distributions</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>\citep{Belkin2003}</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>Regression-based</t>
+  </si>
+  <si>
+    <t>pre-QC</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>post-QC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samples </t>
+  </si>
+  <si>
+    <t>SNPs</t>
+  </si>
+  <si>
+    <t>samples</t>
+  </si>
+  <si>
+    <t>total (male/female)</t>
+  </si>
+  <si>
+    <t>HVOL (male/female)</t>
+  </si>
+  <si>
+    <t>outlying heterozygosity</t>
+  </si>
+  <si>
+    <t>non-caucasian</t>
+  </si>
+  <si>
+    <t>not in reference</t>
+  </si>
+  <si>
+    <t>alleles different from UK10K1KG</t>
+  </si>
+  <si>
+    <t>alleles different from Ensembl</t>
+  </si>
+  <si>
+    <t>missing genotype data</t>
+  </si>
+  <si>
+    <t>HWE exact test</t>
+  </si>
+  <si>
+    <t>sanger12</t>
+  </si>
+  <si>
+    <t>1346  (615/  731)</t>
+  </si>
+  <si>
+    <t>1344  (614/  730)</t>
+  </si>
+  <si>
+    <t>998 (463/535)</t>
+  </si>
+  <si>
+    <t>Duke_NUS12</t>
+  </si>
+  <si>
+    <t>1214  (716/ 498 )</t>
+  </si>
+  <si>
+    <t>284 (118/ 166)</t>
+  </si>
+  <si>
+    <t>1000 (628/ 425)</t>
+  </si>
+  <si>
+    <t>179 (68/ 111)</t>
+  </si>
+  <si>
+    <t>Duke-NUS3</t>
+  </si>
+  <si>
+    <t>429 (290/ 139)</t>
+  </si>
+  <si>
+    <t>96 (48/ 48)</t>
+  </si>
+  <si>
+    <t>384 (270/ 114)</t>
+  </si>
+  <si>
+    <t>62 (34/ 28)</t>
+  </si>
+  <si>
+    <t>1346  (615/ 731)</t>
+  </si>
+  <si>
+    <t>1214  (716/498 )</t>
+  </si>
+  <si>
+    <t>429 (290/139)</t>
+  </si>
+  <si>
+    <t>284 (118/166)</t>
+  </si>
+  <si>
+    <t>1344  (614/730)</t>
+  </si>
+  <si>
+    <t>96 (48/48)</t>
+  </si>
+  <si>
+    <t>1000 (628/425)</t>
+  </si>
+  <si>
+    <t>384 (270/114)</t>
+  </si>
+  <si>
+    <t>62 (34/28)</t>
+  </si>
+  <si>
+    <t>179 (68/111)</t>
+  </si>
+  <si>
+    <t>samples (m/f)</t>
+  </si>
+  <si>
+    <t>\num{719665}</t>
+  </si>
+  <si>
+    <t>\num{1344}  (\num{614}/\num{730})</t>
+  </si>
+  <si>
+    <t>\num{284} (\num{118}/\num{166})</t>
+  </si>
+  <si>
+    <t>\num{96} (\num{48}/\num{48})</t>
+  </si>
+  <si>
+    <t>\num{998} (\num{463}/\num{535})</t>
+  </si>
+  <si>
+    <t>\num{179} (\num{68}/\num{111})</t>
+  </si>
+  <si>
+    <t>\num{62} (\num{34}/\num{28})</t>
+  </si>
+  <si>
+    <t>\num{716503}</t>
+  </si>
+  <si>
+    <t>\num{7713014}</t>
+  </si>
+  <si>
+    <t>\num{677036}</t>
+  </si>
+  <si>
+    <t>\num{682016}</t>
+  </si>
+  <si>
+    <t>\num{657497}</t>
+  </si>
+  <si>
+    <t>Sanger12</t>
+  </si>
+  <si>
+    <t>Duke-NUS12</t>
+  </si>
+  <si>
+    <t>\num{0.998}</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>R function</t>
+  </si>
+  <si>
+    <t>fragmentedOK=TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ndim, </t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ndim, k</t>
+  </si>
+  <si>
+    <t>ndim</t>
+  </si>
+  <si>
+    <t>ndim, fun=logcosh,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> method="C"</t>
+  </si>
+  <si>
+    <t>ndim, k,</t>
+  </si>
+  <si>
+    <t>stats::prcomp</t>
+  </si>
+  <si>
+    <t>fastICA::fastICA</t>
+  </si>
+  <si>
+    <t>stats::cmdscale</t>
+  </si>
+  <si>
+    <t>vegan::metaMDS</t>
+  </si>
+  <si>
+    <t>DRR::drr</t>
+  </si>
+  <si>
+    <t>kernlab::kpca</t>
+  </si>
+  <si>
+    <t>vegan::isomap</t>
+  </si>
+  <si>
+    <t>lle::lle</t>
+  </si>
+  <si>
+    <t>loe::LOE</t>
+  </si>
+  <si>
+    <t>diffusionMap::diffuse</t>
+  </si>
+  <si>
+    <t>Rtsne::Rtsne</t>
+  </si>
+  <si>
+    <t>\num{3}kb</t>
+  </si>
+  <si>
+    <t>\num{10}kb</t>
+  </si>
+  <si>
+    <t>\num{1028}</t>
+  </si>
+  <si>
+    <t>\num{4105}</t>
+  </si>
+  <si>
+    <t>\num{384}</t>
+  </si>
+  <si>
+    <t>\num{275}</t>
+  </si>
+  <si>
+    <t>\num{1.4}</t>
+  </si>
+  <si>
+    <t>\num{101}</t>
+  </si>
+  <si>
+    <t>\num{72}</t>
+  </si>
+  <si>
+    <t>\num{264}</t>
+  </si>
+  <si>
+    <t>\num{24}</t>
+  </si>
+  <si>
+    <t>\num{20}</t>
+  </si>
+  <si>
+    <t>\num{1.2}</t>
+  </si>
+  <si>
+    <t>\num{161}</t>
+  </si>
+  <si>
+    <t>\num{15}</t>
+  </si>
+  <si>
+    <t>\num{13}</t>
+  </si>
+  <si>
+    <t>\num{1.15}</t>
+  </si>
+  <si>
+    <t>\num{107}</t>
+  </si>
+  <si>
+    <t>\num{9}</t>
+  </si>
+  <si>
+    <t>\num{7}</t>
+  </si>
+  <si>
+    <t>\num{1.29}</t>
+  </si>
+  <si>
+    <t>\num{100}kb</t>
+  </si>
+  <si>
+    <t>\num{50}kb</t>
+  </si>
+  <si>
+    <t>\num{30}kb</t>
+  </si>
+  <si>
+    <t>\num{11623}</t>
+  </si>
+  <si>
+    <t>\num{1132}</t>
+  </si>
+  <si>
+    <t>\num{695}</t>
+  </si>
+  <si>
+    <t>\num{1.63}</t>
+  </si>
+  <si>
+    <t>\numrange{10}{30}</t>
+  </si>
+  <si>
+    <t>\num{1}</t>
+  </si>
+  <si>
+    <t>\num{2}</t>
+  </si>
+  <si>
+    <t>\num{10}</t>
+  </si>
+  <si>
+    <t>\num{5e-8}</t>
+  </si>
+  <si>
+    <t>\num{5e-5}</t>
+  </si>
+  <si>
+    <r>
+      <t>\num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>{2.17e-03}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>\num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>{2.32e-05}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>\num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>{1.09e-02}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>\num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>{2.08e-04}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>\num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>{3.17e-02}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>\num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>{1.01e-03}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>\num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>{4.51e-05}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>\(&lt;\)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>\num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>{5e-08}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>\num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>{1.93e-05}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>\num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>{2.28e-05}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>\num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>{4.56e-08}</t>
+    </r>
+  </si>
+  <si>
+    <t>\num{100}</t>
+  </si>
+  <si>
+    <t>\num{50}</t>
+  </si>
+  <si>
+    <t>\num{1000}</t>
+  </si>
+  <si>
+    <t>0.12,0</t>
+  </si>
+  <si>
+    <t>0.24,0.24</t>
+  </si>
+  <si>
+    <t>0.24, 0.36</t>
+  </si>
+  <si>
+    <t>(1-\(h_2\))(1-\(\delta\))(1-\(\rho\))</t>
+  </si>
+  <si>
+    <t>(1-\(h_2\))(1-\(\delta\))\(\rho\)</t>
+  </si>
+  <si>
+    <t>pcorr</t>
+  </si>
+  <si>
+    <t>\(N\)</t>
+  </si>
+  <si>
+    <t>\num{500},\num{1000}, \num{10000}</t>
+  </si>
+  <si>
+    <t>Chr</t>
+  </si>
+  <si>
+    <t>SNPs after Imputation</t>
+  </si>
+  <si>
+    <t>genome</t>
+  </si>
+  <si>
+    <t>chr</t>
+  </si>
+  <si>
+    <t>Imputed SNPs (Sanger)</t>
+  </si>
+  <si>
+    <t>Imputed SNPs (Singapore12)</t>
+  </si>
+  <si>
+    <t>Imputed SNPs (Singapore3)</t>
+  </si>
+  <si>
+    <t>Imputed SNPs after imputation filtering (INFO &gt; 0.4)</t>
+  </si>
+  <si>
+    <t>Imputed SNPs after HWE and MAF filtering</t>
+  </si>
+  <si>
+    <t>\num{3196692}</t>
+  </si>
+  <si>
+    <t>\num{3197145}</t>
+  </si>
+  <si>
+    <t>\num{3196563}</t>
+  </si>
+  <si>
+    <t>\num{1251157}</t>
+  </si>
+  <si>
+    <t>\num{719882}</t>
+  </si>
+  <si>
+    <t>\num{3515670}</t>
+  </si>
+  <si>
+    <t>\num{3515861}</t>
+  </si>
+  <si>
+    <t>\num{3515602}</t>
+  </si>
+  <si>
+    <t>\num{1360182}</t>
+  </si>
+  <si>
+    <t>\num{780152}</t>
+  </si>
+  <si>
+    <t>\num{3}</t>
+  </si>
+  <si>
+    <t>\num{2941265}</t>
+  </si>
+  <si>
+    <t>\num{2941468}</t>
+  </si>
+  <si>
+    <t>\num{2941223}</t>
+  </si>
+  <si>
+    <t>\num{1156243}</t>
+  </si>
+  <si>
+    <t>\num{665038}</t>
+  </si>
+  <si>
+    <t>\num{4}</t>
+  </si>
+  <si>
+    <t>\num{2900679}</t>
+  </si>
+  <si>
+    <t>\num{2900786}</t>
+  </si>
+  <si>
+    <t>\num{2900634}</t>
+  </si>
+  <si>
+    <t>\num{1154742}</t>
+  </si>
+  <si>
+    <t>\num{684602}</t>
+  </si>
+  <si>
+    <t>\num{5}</t>
+  </si>
+  <si>
+    <t>\num{2688219}</t>
+  </si>
+  <si>
+    <t>\num{2688348}</t>
+  </si>
+  <si>
+    <t>\num{2688174}</t>
+  </si>
+  <si>
+    <t>\num{1049671}</t>
+  </si>
+  <si>
+    <t>\num{606951}</t>
+  </si>
+  <si>
+    <t>\num{6}</t>
+  </si>
+  <si>
+    <t>\num{2581500}</t>
+  </si>
+  <si>
+    <t>\num{2581851}</t>
+  </si>
+  <si>
+    <t>\num{2581410}</t>
+  </si>
+  <si>
+    <t>\num{1058844}</t>
+  </si>
+  <si>
+    <t>\num{635257}</t>
+  </si>
+  <si>
+    <t>\num{2359370}</t>
+  </si>
+  <si>
+    <t>\num{2359598}</t>
+  </si>
+  <si>
+    <t>\num{2359319}</t>
+  </si>
+  <si>
+    <t>\num{932726}</t>
+  </si>
+  <si>
+    <t>\num{551744}</t>
+  </si>
+  <si>
+    <t>\num{8}</t>
+  </si>
+  <si>
+    <t>\num{2323181}</t>
+  </si>
+  <si>
+    <t>\num{2323290}</t>
+  </si>
+  <si>
+    <t>\num{2323144}</t>
+  </si>
+  <si>
+    <t>\num{890407}</t>
+  </si>
+  <si>
+    <t>\num{514803}</t>
+  </si>
+  <si>
+    <t>\num{1752242}</t>
+  </si>
+  <si>
+    <t>\num{1752363}</t>
+  </si>
+  <si>
+    <t>\num{1752199}</t>
+  </si>
+  <si>
+    <t>\num{698510}</t>
+  </si>
+  <si>
+    <t>\num{398777}</t>
+  </si>
+  <si>
+    <t>\num{2003743}</t>
+  </si>
+  <si>
+    <t>\num{2003881}</t>
+  </si>
+  <si>
+    <t>\num{2003694}</t>
+  </si>
+  <si>
+    <t>\num{812616}</t>
+  </si>
+  <si>
+    <t>\num{474686}</t>
+  </si>
+  <si>
+    <t>\num{11}</t>
+  </si>
+  <si>
+    <t>\num{2013331}</t>
+  </si>
+  <si>
+    <t>\num{2013535}</t>
+  </si>
+  <si>
+    <t>\num{2013273}</t>
+  </si>
+  <si>
+    <t>\num{794587}</t>
+  </si>
+  <si>
+    <t>\num{481479}</t>
+  </si>
+  <si>
+    <t>\num{12}</t>
+  </si>
+  <si>
+    <t>\num{1947915}</t>
+  </si>
+  <si>
+    <t>\num{1948107}</t>
+  </si>
+  <si>
+    <t>\num{1947865}</t>
+  </si>
+  <si>
+    <t>\num{767854}</t>
+  </si>
+  <si>
+    <t>\num{452193}</t>
+  </si>
+  <si>
+    <t>\num{1458325}</t>
+  </si>
+  <si>
+    <t>\num{1458401}</t>
+  </si>
+  <si>
+    <t>\num{1458308}</t>
+  </si>
+  <si>
+    <t>\num{590863}</t>
+  </si>
+  <si>
+    <t>\num{348525}</t>
+  </si>
+  <si>
+    <t>\num{14}</t>
+  </si>
+  <si>
+    <t>\num{1333919}</t>
+  </si>
+  <si>
+    <t>\num{1333973}</t>
+  </si>
+  <si>
+    <t>\num{1333901}</t>
+  </si>
+  <si>
+    <t>\num{524391}</t>
+  </si>
+  <si>
+    <t>\num{309825}</t>
+  </si>
+  <si>
+    <t>\num{1194294}</t>
+  </si>
+  <si>
+    <t>\num{1194406}</t>
+  </si>
+  <si>
+    <t>\num{1194264}</t>
+  </si>
+  <si>
+    <t>\num{458617}</t>
+  </si>
+  <si>
+    <t>\num{266813}</t>
+  </si>
+  <si>
+    <t>\num{16}</t>
+  </si>
+  <si>
+    <t>\num{1289127}</t>
+  </si>
+  <si>
+    <t>\num{1289335}</t>
+  </si>
+  <si>
+    <t>\num{1289074}</t>
+  </si>
+  <si>
+    <t>\num{497688}</t>
+  </si>
+  <si>
+    <t>\num{286620}</t>
+  </si>
+  <si>
+    <t>\num{17}</t>
+  </si>
+  <si>
+    <t>\num{1118587}</t>
+  </si>
+  <si>
+    <t>\num{1118772}</t>
+  </si>
+  <si>
+    <t>\num{1118528}</t>
+  </si>
+  <si>
+    <t>\num{434724}</t>
+  </si>
+  <si>
+    <t>\num{252227}</t>
+  </si>
+  <si>
+    <t>\num{18}</t>
+  </si>
+  <si>
+    <t>\num{1153963}</t>
+  </si>
+  <si>
+    <t>\num{1154034}</t>
+  </si>
+  <si>
+    <t>\num{1153942}</t>
+  </si>
+  <si>
+    <t>\num{457454}</t>
+  </si>
+  <si>
+    <t>\num{268986}</t>
+  </si>
+  <si>
+    <t>\num{19}</t>
+  </si>
+  <si>
+    <t>\num{877689}</t>
+  </si>
+  <si>
+    <t>\num{877866}</t>
+  </si>
+  <si>
+    <t>\num{877645}</t>
+  </si>
+  <si>
+    <t>\num{361419}</t>
+  </si>
+  <si>
+    <t>\num{222264}</t>
+  </si>
+  <si>
+    <t>\num{912602}</t>
+  </si>
+  <si>
+    <t>\num{912721}</t>
+  </si>
+  <si>
+    <t>\num{912574}</t>
+  </si>
+  <si>
+    <t>\num{357156}</t>
+  </si>
+  <si>
+    <t>\num{210128}</t>
+  </si>
+  <si>
+    <t>\num{21}</t>
+  </si>
+  <si>
+    <t>\num{546390}</t>
+  </si>
+  <si>
+    <t>\num{546414}</t>
+  </si>
+  <si>
+    <t>\num{546381}</t>
+  </si>
+  <si>
+    <t>\num{216911}</t>
+  </si>
+  <si>
+    <t>\num{131079}</t>
+  </si>
+  <si>
+    <t>\num{22}</t>
+  </si>
+  <si>
+    <t>\num{531437}</t>
+  </si>
+  <si>
+    <t>\num{531528}</t>
+  </si>
+  <si>
+    <t>\num{531416}</t>
+  </si>
+  <si>
+    <t>\num{215547}</t>
+  </si>
+  <si>
+    <t>\num{129771}</t>
+  </si>
+  <si>
+    <t>\num{42989377}</t>
+  </si>
+  <si>
+    <t>\num{42993178}</t>
+  </si>
+  <si>
+    <t>\num{42988308}</t>
+  </si>
+  <si>
+    <t>\num{16042309}</t>
+  </si>
+  <si>
+    <t>\num{9391802}</t>
+  </si>
+  <si>
+    <t>Filtering INFO &gt; 0.4</t>
+  </si>
+  <si>
+    <t>HWE and MAF filtering</t>
+  </si>
+  <si>
+    <t>SNP</t>
+  </si>
+  <si>
+    <t>rs113719231</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>rs139971383</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>rs143266802</t>
+  </si>
+  <si>
+    <t>Allele 1</t>
+  </si>
+  <si>
+    <t>Allele 2</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>MAF</t>
+  </si>
+  <si>
+    <t>\num{9.04E-09}</t>
+  </si>
+  <si>
+    <t>\num{1.09E-10}</t>
+  </si>
+  <si>
+    <t>\num{1.54E-08}</t>
+  </si>
+  <si>
+    <t>\num{0.013}</t>
+  </si>
+  <si>
+    <t>\num{0.11}</t>
+  </si>
+  <si>
+    <t>\num{0.022}</t>
+  </si>
+  <si>
+    <t>\num{3427138}</t>
+  </si>
+  <si>
+    <t>\num{2246921}</t>
+  </si>
+  <si>
+    <t>\num{43978849}</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>LVM</t>
+  </si>
+  <si>
+    <t>Slices</t>
+  </si>
+  <si>
+    <t>\num{4.96E-03}</t>
+  </si>
+  <si>
+    <t>\num{2.87E-04}</t>
+  </si>
+  <si>
+    <t>\num{4.43E-01}</t>
+  </si>
+  <si>
+    <t>\num{4.55E-05}</t>
+  </si>
+  <si>
+    <t>\num{2.62E-03}</t>
+  </si>
+  <si>
+    <t>\num{3.89E-01}</t>
+  </si>
+  <si>
+    <t>\num{5.5E-01}</t>
+  </si>
+  <si>
+    <t>\num{3.04E-08}</t>
+  </si>
+  <si>
+    <t>\num{4.33E-02}</t>
+  </si>
+  <si>
+    <t>\num{1.25E-04}</t>
+  </si>
+  <si>
+    <t>\num{1.21E-12}</t>
+  </si>
+  <si>
+    <t>\num{8.02E-01}</t>
+  </si>
+  <si>
+    <t>\(\text{FD}_\text{max}^\text{basal}\)</t>
+  </si>
+  <si>
+    <t>\(\text{FD}_\text{max}^\text{apical}\)</t>
+  </si>
+  <si>
+    <t>GRAMMAR-</t>
+  </si>
+  <si>
+    <t>Gamma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -470,6 +1678,46 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF008000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -518,10 +1766,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -581,9 +1867,105 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -614,27 +1996,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="39">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -648,14 +2082,26 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="significant_tagSNPs" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="significant_tagSNPs" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SNPsPerChr_LatexFormat_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SNPsPerChr_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pqtlExX_multitrait_psig5e08" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="calibrationSummaryTable" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -922,10 +2368,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -940,126 +2387,126 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="C1" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="26"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>225</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>247</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>11623</v>
-      </c>
-      <c r="C3">
-        <v>4105</v>
-      </c>
-      <c r="D3">
-        <v>1028</v>
-      </c>
-      <c r="E3">
-        <v>264</v>
-      </c>
-      <c r="F3">
-        <v>161</v>
-      </c>
-      <c r="G3">
-        <v>107</v>
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1132</v>
-      </c>
-      <c r="C4">
-        <v>384</v>
-      </c>
-      <c r="D4">
-        <v>101</v>
-      </c>
-      <c r="E4">
-        <v>24</v>
-      </c>
-      <c r="F4">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
+      <c r="B4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>695</v>
-      </c>
-      <c r="C5">
-        <v>275</v>
-      </c>
-      <c r="D5">
-        <v>72</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
+      <c r="B5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>1.63</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.29</v>
+      <c r="B6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -1068,15 +2515,1114 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.5" style="27" customWidth="1"/>
+    <col min="3" max="3" width="20" style="27" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="40.5" style="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="29">
+        <v>0</v>
+      </c>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="84"/>
+      <c r="B4" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="84"/>
+      <c r="B5" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="29">
+        <v>2</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="28">
+        <v>2</v>
+      </c>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="78"/>
+      <c r="B7" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="78"/>
+      <c r="B8" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="29">
+        <f>-E13</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="78"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1</v>
+      </c>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="78"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="28">
+        <v>1</v>
+      </c>
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="78"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="28">
+        <v>2</v>
+      </c>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="78"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="79"/>
+      <c r="B13" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="30">
+        <v>4</v>
+      </c>
+      <c r="E13" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A6:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" style="53" customWidth="1"/>
+    <col min="4" max="4" width="20" style="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" s="47" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="48"/>
+    </row>
+    <row r="5" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="87"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="58" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="85"/>
+      <c r="I11" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="17" spans="3:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="28"/>
+    </row>
+    <row r="18" spans="3:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="28"/>
+    </row>
+    <row r="19" spans="3:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="28"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="12" max="13" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" s="88"/>
+      <c r="N2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="41">
+        <v>719665</v>
+      </c>
+      <c r="G4" s="41">
+        <v>2216</v>
+      </c>
+      <c r="H4" s="41">
+        <v>639</v>
+      </c>
+      <c r="I4" s="41">
+        <v>15214</v>
+      </c>
+      <c r="J4" s="41">
+        <v>23361</v>
+      </c>
+      <c r="K4" s="41">
+        <v>1199</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="N4" s="41">
+        <v>677036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="41">
+        <v>716503</v>
+      </c>
+      <c r="G5" s="41">
+        <v>2200</v>
+      </c>
+      <c r="H5" s="41">
+        <v>804</v>
+      </c>
+      <c r="I5" s="41">
+        <v>11380</v>
+      </c>
+      <c r="J5" s="41">
+        <v>18746</v>
+      </c>
+      <c r="K5" s="41">
+        <v>1357</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="M5" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="N5" s="41">
+        <v>682016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="41">
+        <v>713014</v>
+      </c>
+      <c r="G6" s="41">
+        <v>2110</v>
+      </c>
+      <c r="H6" s="41">
+        <v>5341</v>
+      </c>
+      <c r="I6" s="41">
+        <v>20514</v>
+      </c>
+      <c r="J6" s="41">
+        <v>26988</v>
+      </c>
+      <c r="K6">
+        <v>564</v>
+      </c>
+      <c r="L6" t="s">
+        <v>176</v>
+      </c>
+      <c r="M6" t="s">
+        <v>177</v>
+      </c>
+      <c r="N6" s="41">
+        <v>657497</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="41">
+        <v>719665</v>
+      </c>
+      <c r="C3" s="41">
+        <v>2216</v>
+      </c>
+      <c r="D3" s="41">
+        <v>639</v>
+      </c>
+      <c r="E3" s="41">
+        <v>15214</v>
+      </c>
+      <c r="F3" s="41">
+        <v>23361</v>
+      </c>
+      <c r="G3" s="41">
+        <v>1199</v>
+      </c>
+      <c r="H3" s="41">
+        <v>677036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="41">
+        <v>716503</v>
+      </c>
+      <c r="C4" s="41">
+        <v>2200</v>
+      </c>
+      <c r="D4" s="41">
+        <v>804</v>
+      </c>
+      <c r="E4" s="41">
+        <v>11380</v>
+      </c>
+      <c r="F4" s="41">
+        <v>18746</v>
+      </c>
+      <c r="G4" s="41">
+        <v>1357</v>
+      </c>
+      <c r="H4" s="41">
+        <v>682016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="41">
+        <v>713014</v>
+      </c>
+      <c r="C5" s="41">
+        <v>2110</v>
+      </c>
+      <c r="D5" s="41">
+        <v>5341</v>
+      </c>
+      <c r="E5" s="41">
+        <v>20514</v>
+      </c>
+      <c r="F5" s="41">
+        <v>26988</v>
+      </c>
+      <c r="G5">
+        <v>564</v>
+      </c>
+      <c r="H5" s="41">
+        <v>657497</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="69"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1089,99 +3635,99 @@
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="E1" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>33</v>
+      <c r="A2" s="72" t="s">
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="73"/>
+      <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>36</v>
+      <c r="A5" s="73" t="s">
+        <v>31</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="74"/>
+      <c r="B7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1195,10 +3741,765 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="H1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="A2" s="76"/>
+      <c r="B2" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E13" t="s">
+        <v>349</v>
+      </c>
+      <c r="F13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" t="s">
+        <v>353</v>
+      </c>
+      <c r="D14" t="s">
+        <v>354</v>
+      </c>
+      <c r="E14" t="s">
+        <v>355</v>
+      </c>
+      <c r="F14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E15" t="s">
+        <v>360</v>
+      </c>
+      <c r="F15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C16" t="s">
+        <v>364</v>
+      </c>
+      <c r="D16" t="s">
+        <v>365</v>
+      </c>
+      <c r="E16" t="s">
+        <v>366</v>
+      </c>
+      <c r="F16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" t="s">
+        <v>368</v>
+      </c>
+      <c r="C17" t="s">
+        <v>369</v>
+      </c>
+      <c r="D17" t="s">
+        <v>370</v>
+      </c>
+      <c r="E17" t="s">
+        <v>371</v>
+      </c>
+      <c r="F17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>373</v>
+      </c>
+      <c r="B18" t="s">
+        <v>374</v>
+      </c>
+      <c r="C18" t="s">
+        <v>375</v>
+      </c>
+      <c r="D18" t="s">
+        <v>376</v>
+      </c>
+      <c r="E18" t="s">
+        <v>377</v>
+      </c>
+      <c r="F18" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>379</v>
+      </c>
+      <c r="B19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19" t="s">
+        <v>381</v>
+      </c>
+      <c r="D19" t="s">
+        <v>382</v>
+      </c>
+      <c r="E19" t="s">
+        <v>383</v>
+      </c>
+      <c r="F19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>385</v>
+      </c>
+      <c r="B20" t="s">
+        <v>386</v>
+      </c>
+      <c r="C20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D20" t="s">
+        <v>388</v>
+      </c>
+      <c r="E20" t="s">
+        <v>389</v>
+      </c>
+      <c r="F20" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>391</v>
+      </c>
+      <c r="B21" t="s">
+        <v>392</v>
+      </c>
+      <c r="C21" t="s">
+        <v>393</v>
+      </c>
+      <c r="D21" t="s">
+        <v>394</v>
+      </c>
+      <c r="E21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F21" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" t="s">
+        <v>397</v>
+      </c>
+      <c r="C22" t="s">
+        <v>398</v>
+      </c>
+      <c r="D22" t="s">
+        <v>399</v>
+      </c>
+      <c r="E22" t="s">
+        <v>400</v>
+      </c>
+      <c r="F22" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>402</v>
+      </c>
+      <c r="B23" t="s">
+        <v>403</v>
+      </c>
+      <c r="C23" t="s">
+        <v>404</v>
+      </c>
+      <c r="D23" t="s">
+        <v>405</v>
+      </c>
+      <c r="E23" t="s">
+        <v>406</v>
+      </c>
+      <c r="F23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="67" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>432</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>433</v>
+      </c>
+      <c r="E3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>434</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1210,64 +4511,64 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="B1" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="25"/>
+      <c r="B1" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="69"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>47</v>
+      <c r="A3" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" s="11">
         <v>0</v>
@@ -1275,32 +4576,32 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -1308,40 +4609,40 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3">
         <v>0.6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3">
         <v>0.8</v>
@@ -1352,18 +4653,18 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3">
         <v>0.6</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>0.8</v>
@@ -1383,12 +4684,192 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection sqref="A1:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.83203125" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="73"/>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="73"/>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="73"/>
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="73"/>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="73"/>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="73"/>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1403,332 +4884,348 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>59</v>
+      <c r="A2" s="77" t="s">
+        <v>54</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="78"/>
+      <c r="B3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="15" t="s">
-        <v>64</v>
-      </c>
       <c r="C3" s="16" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>82</v>
+        <v>256</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
-        <v>54</v>
+      <c r="A5" s="78" t="s">
+        <v>49</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="22">
-        <v>2</v>
+        <v>104</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>255</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>62</v>
+        <v>462</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>56</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
-        <v>84</v>
-      </c>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="22">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>69</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="76"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="24" t="s">
+      <c r="A10" s="78"/>
+      <c r="B10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="79"/>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="267" zoomScaleNormal="267" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="14" style="25" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="3" customWidth="1"/>
     <col min="5" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1736,128 +5233,128 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="38"/>
+      <c r="C1" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="81"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>120</v>
+        <v>106</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="31">
-        <v>10</v>
-      </c>
-      <c r="B3" s="39">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C3" s="39">
-        <v>2.17299474398057E-3</v>
-      </c>
-      <c r="D3" s="39">
-        <v>4.5120550111206901E-5</v>
+      <c r="A3" s="75" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-      <c r="B4" s="37">
-        <v>4.9999999999999998E-8</v>
-      </c>
-      <c r="C4" s="37">
-        <v>2.3221799804453301E-5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="41">
-        <v>50</v>
-      </c>
-      <c r="B5" s="37">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C5" s="37">
-        <v>1.08794816419811E-2</v>
-      </c>
-      <c r="D5" s="37">
-        <v>1.9343896104299001E-5</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="A5" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
-      <c r="B6" s="37">
-        <v>4.9999999999999998E-8</v>
-      </c>
-      <c r="C6" s="37">
-        <v>2.0753628155296299E-4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>116</v>
+      <c r="A6" s="82"/>
+      <c r="B6" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="32">
-        <v>100</v>
-      </c>
-      <c r="B7" s="37">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C7" s="37">
-        <v>3.1668695266525798E-2</v>
-      </c>
-      <c r="D7" s="37">
-        <v>2.2811198236201701E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
-      <c r="B8" s="40">
-        <v>4.9999999999999998E-8</v>
-      </c>
-      <c r="C8" s="40">
-        <v>1.014231495978E-3</v>
-      </c>
-      <c r="D8" s="40">
-        <v>4.5622396472403301E-8</v>
+      <c r="A7" s="76" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" s="80"/>
+      <c r="B8" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1868,24 +5365,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="39060" yWindow="1560" windowWidth="28800" windowHeight="17460" tabRatio="500" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="6580" yWindow="5060" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LDGwasYeast" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="464">
   <si>
     <t>All SNPs</t>
   </si>
@@ -162,15 +162,9 @@
     <t>\(h_2^s\)</t>
   </si>
   <si>
-    <t>0.48, 0.3, 0.12</t>
-  </si>
-  <si>
     <t>\(h_2^g\)</t>
   </si>
   <si>
-    <t>0.32, 0.2, 0.08</t>
-  </si>
-  <si>
     <t>\(h_2\)</t>
   </si>
   <si>
@@ -180,15 +174,9 @@
     <t>(1-\(h_2\))\(\delta\)</t>
   </si>
   <si>
-    <t>0.08, 0.2, 0.32</t>
-  </si>
-  <si>
     <t>(1-\(h_2\))(1-\(\delta\))</t>
   </si>
   <si>
-    <t>0.12, 0.3, 0.48</t>
-  </si>
-  <si>
     <t>(1-\(h_2\))</t>
   </si>
   <si>
@@ -265,9 +253,6 @@
   </si>
   <si>
     <t>relatedNoPopstructure</t>
-  </si>
-  <si>
-    <t>unrelatedNoPopstructure</t>
   </si>
   <si>
     <t>unrelatedPopstructure</t>
@@ -1658,6 +1643,21 @@
   </si>
   <si>
     <t>Gamma</t>
+  </si>
+  <si>
+    <t>0.05,0.02, 0.0125</t>
+  </si>
+  <si>
+    <t>0.95,0.98,0.9875</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>Covariance comparison</t>
+  </si>
+  <si>
+    <t>10, 20, 30, 50, 100</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1766,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1806,8 +1806,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1996,6 +2004,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2023,14 +2037,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2050,6 +2061,10 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2069,6 +2084,10 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2086,11 +2105,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SNPsPerChr_LatexFormat_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SNPsPerChr_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SNPsPerChr_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SNPsPerChr_LatexFormat_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2098,11 +2117,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="calibrationSummaryTable" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="calibrationSummaryTable" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2402,19 +2421,19 @@
       <c r="A2" s="2"/>
       <c r="B2" s="70"/>
       <c r="C2" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2422,22 +2441,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2445,22 +2464,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2468,22 +2487,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2491,22 +2510,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2538,38 +2557,38 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="86" t="s">
-        <v>139</v>
+      <c r="A2" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>134</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D2" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="87"/>
       <c r="C3" s="29" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D3" s="29">
         <v>0</v>
@@ -2577,24 +2596,24 @@
       <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="84"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="33" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D4" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="84"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="33" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D5" s="29">
         <v>2</v>
@@ -2604,13 +2623,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="78" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D6" s="28">
         <v>2</v>
@@ -2620,23 +2639,23 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="78"/>
       <c r="B7" s="29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="78"/>
-      <c r="B8" s="85" t="s">
-        <v>142</v>
+      <c r="B8" s="87" t="s">
+        <v>137</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D8" s="29">
         <f>-E13</f>
@@ -2646,9 +2665,9 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="78"/>
-      <c r="B9" s="85"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D9" s="29">
         <v>1</v>
@@ -2657,9 +2676,9 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
-      <c r="B10" s="85"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="29" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D10" s="28">
         <v>1</v>
@@ -2668,9 +2687,9 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
-      <c r="B11" s="85"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="29" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D11" s="28">
         <v>2</v>
@@ -2679,22 +2698,22 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
-      <c r="B12" s="85"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="29" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="79"/>
       <c r="B13" s="39" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D13" s="30">
         <v>4</v>
@@ -2732,257 +2751,257 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C3" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" s="47" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="48"/>
+    </row>
+    <row r="5" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="27"/>
-    </row>
-    <row r="4" spans="1:10" s="47" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="87" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="87" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="48"/>
-    </row>
-    <row r="5" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="87"/>
+      <c r="D5" s="89"/>
       <c r="I5" s="48"/>
       <c r="J5" s="48"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="54" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="54" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="54" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="54" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="85" t="s">
-        <v>220</v>
+      <c r="A10" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>215</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="85" t="s">
-        <v>126</v>
+        <v>208</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>121</v>
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="58" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" s="85"/>
+        <v>201</v>
+      </c>
+      <c r="D11" s="87"/>
       <c r="I11" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="54" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="54" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="56" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J15" s="29"/>
     </row>
@@ -3040,97 +3059,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="88"/>
-      <c r="D2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="M2" s="88"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" s="90"/>
       <c r="N2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" t="s">
         <v>155</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
         <v>156</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>157</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
         <v>158</v>
       </c>
-      <c r="G3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" t="s">
-        <v>161</v>
-      </c>
-      <c r="J3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K3" t="s">
-        <v>163</v>
-      </c>
       <c r="L3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D4" s="41">
         <v>719665</v>
@@ -3151,10 +3170,10 @@
         <v>1199</v>
       </c>
       <c r="L4" s="41" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M4" s="41" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N4" s="41">
         <v>677036</v>
@@ -3162,13 +3181,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D5" s="41">
         <v>716503</v>
@@ -3189,10 +3208,10 @@
         <v>1357</v>
       </c>
       <c r="L5" s="41" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M5" s="41" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N5" s="41">
         <v>682016</v>
@@ -3200,13 +3219,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D6" s="41">
         <v>713014</v>
@@ -3227,10 +3246,10 @@
         <v>564</v>
       </c>
       <c r="L6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="N6" s="41">
         <v>657497</v>
@@ -3273,39 +3292,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
+        <v>144</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
       <c r="H1" s="42" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B3" s="41">
         <v>719665</v>
@@ -3331,7 +3350,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B4" s="41">
         <v>716503</v>
@@ -3357,7 +3376,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B5" s="41">
         <v>713014</v>
@@ -3410,77 +3429,77 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="69" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C1" s="69"/>
       <c r="D1" s="69" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="C4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>184</v>
-      </c>
       <c r="E4" s="41" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3515,95 +3534,95 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="69" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C1" s="69"/>
       <c r="D1" s="34"/>
       <c r="E1" s="71" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F1" s="71"/>
       <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="14" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>198</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>196</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>199</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3621,8 +3640,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="P38" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3635,24 +3654,24 @@
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -3660,42 +3679,42 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="73"/>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="73"/>
       <c r="B4" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="73" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -3703,31 +3722,31 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="73"/>
       <c r="B6" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="74"/>
       <c r="B7" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3756,76 +3775,76 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B4" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B5" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C6" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -3860,510 +3879,510 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="75" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
       <c r="E1" s="75" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F1" s="75" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" t="s">
+        <v>283</v>
+      </c>
+      <c r="M1" t="s">
         <v>284</v>
-      </c>
-      <c r="I1" t="s">
-        <v>285</v>
-      </c>
-      <c r="J1" t="s">
-        <v>286</v>
-      </c>
-      <c r="K1" t="s">
-        <v>287</v>
-      </c>
-      <c r="L1" t="s">
-        <v>288</v>
-      </c>
-      <c r="M1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="15" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" t="s">
         <v>300</v>
-      </c>
-      <c r="B5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E5" t="s">
-        <v>304</v>
-      </c>
-      <c r="F5" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F6" t="s">
         <v>306</v>
-      </c>
-      <c r="B6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C6" t="s">
-        <v>308</v>
-      </c>
-      <c r="D6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F6" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" t="s">
         <v>312</v>
-      </c>
-      <c r="B7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C7" t="s">
-        <v>314</v>
-      </c>
-      <c r="D7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" t="s">
         <v>318</v>
-      </c>
-      <c r="B8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E8" t="s">
-        <v>322</v>
-      </c>
-      <c r="F8" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C9" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D9" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F10" t="s">
         <v>329</v>
-      </c>
-      <c r="B10" t="s">
-        <v>330</v>
-      </c>
-      <c r="C10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D10" t="s">
-        <v>332</v>
-      </c>
-      <c r="E10" t="s">
-        <v>333</v>
-      </c>
-      <c r="F10" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D11" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E11" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F11" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B12" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C12" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E12" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F12" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F13" t="s">
         <v>345</v>
-      </c>
-      <c r="B13" t="s">
-        <v>346</v>
-      </c>
-      <c r="C13" t="s">
-        <v>347</v>
-      </c>
-      <c r="D13" t="s">
-        <v>348</v>
-      </c>
-      <c r="E13" t="s">
-        <v>349</v>
-      </c>
-      <c r="F13" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B14" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" t="s">
+        <v>349</v>
+      </c>
+      <c r="E14" t="s">
+        <v>350</v>
+      </c>
+      <c r="F14" t="s">
         <v>351</v>
-      </c>
-      <c r="B14" t="s">
-        <v>352</v>
-      </c>
-      <c r="C14" t="s">
-        <v>353</v>
-      </c>
-      <c r="D14" t="s">
-        <v>354</v>
-      </c>
-      <c r="E14" t="s">
-        <v>355</v>
-      </c>
-      <c r="F14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B15" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C15" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D15" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E15" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F15" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" t="s">
+        <v>358</v>
+      </c>
+      <c r="C16" t="s">
+        <v>359</v>
+      </c>
+      <c r="D16" t="s">
+        <v>360</v>
+      </c>
+      <c r="E16" t="s">
+        <v>361</v>
+      </c>
+      <c r="F16" t="s">
         <v>362</v>
-      </c>
-      <c r="B16" t="s">
-        <v>363</v>
-      </c>
-      <c r="C16" t="s">
-        <v>364</v>
-      </c>
-      <c r="D16" t="s">
-        <v>365</v>
-      </c>
-      <c r="E16" t="s">
-        <v>366</v>
-      </c>
-      <c r="F16" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C17" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D17" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E17" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F17" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>368</v>
+      </c>
+      <c r="B18" t="s">
+        <v>369</v>
+      </c>
+      <c r="C18" t="s">
+        <v>370</v>
+      </c>
+      <c r="D18" t="s">
+        <v>371</v>
+      </c>
+      <c r="E18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F18" t="s">
         <v>373</v>
-      </c>
-      <c r="B18" t="s">
-        <v>374</v>
-      </c>
-      <c r="C18" t="s">
-        <v>375</v>
-      </c>
-      <c r="D18" t="s">
-        <v>376</v>
-      </c>
-      <c r="E18" t="s">
-        <v>377</v>
-      </c>
-      <c r="F18" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" t="s">
+        <v>376</v>
+      </c>
+      <c r="D19" t="s">
+        <v>377</v>
+      </c>
+      <c r="E19" t="s">
+        <v>378</v>
+      </c>
+      <c r="F19" t="s">
         <v>379</v>
-      </c>
-      <c r="B19" t="s">
-        <v>380</v>
-      </c>
-      <c r="C19" t="s">
-        <v>381</v>
-      </c>
-      <c r="D19" t="s">
-        <v>382</v>
-      </c>
-      <c r="E19" t="s">
-        <v>383</v>
-      </c>
-      <c r="F19" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>380</v>
+      </c>
+      <c r="B20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C20" t="s">
+        <v>382</v>
+      </c>
+      <c r="D20" t="s">
+        <v>383</v>
+      </c>
+      <c r="E20" t="s">
+        <v>384</v>
+      </c>
+      <c r="F20" t="s">
         <v>385</v>
-      </c>
-      <c r="B20" t="s">
-        <v>386</v>
-      </c>
-      <c r="C20" t="s">
-        <v>387</v>
-      </c>
-      <c r="D20" t="s">
-        <v>388</v>
-      </c>
-      <c r="E20" t="s">
-        <v>389</v>
-      </c>
-      <c r="F20" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>386</v>
+      </c>
+      <c r="B21" t="s">
+        <v>387</v>
+      </c>
+      <c r="C21" t="s">
+        <v>388</v>
+      </c>
+      <c r="D21" t="s">
+        <v>389</v>
+      </c>
+      <c r="E21" t="s">
+        <v>390</v>
+      </c>
+      <c r="F21" t="s">
         <v>391</v>
-      </c>
-      <c r="B21" t="s">
-        <v>392</v>
-      </c>
-      <c r="C21" t="s">
-        <v>393</v>
-      </c>
-      <c r="D21" t="s">
-        <v>394</v>
-      </c>
-      <c r="E21" t="s">
-        <v>395</v>
-      </c>
-      <c r="F21" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C22" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D22" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E22" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F22" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>397</v>
+      </c>
+      <c r="B23" t="s">
+        <v>398</v>
+      </c>
+      <c r="C23" t="s">
+        <v>399</v>
+      </c>
+      <c r="D23" t="s">
+        <v>400</v>
+      </c>
+      <c r="E23" t="s">
+        <v>401</v>
+      </c>
+      <c r="F23" t="s">
         <v>402</v>
-      </c>
-      <c r="B23" t="s">
-        <v>403</v>
-      </c>
-      <c r="C23" t="s">
-        <v>404</v>
-      </c>
-      <c r="D23" t="s">
-        <v>405</v>
-      </c>
-      <c r="E23" t="s">
-        <v>406</v>
-      </c>
-      <c r="F23" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B25" s="65" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -4398,94 +4417,94 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D3" s="67" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -4496,85 +4515,107 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="B1" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="69"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>35</v>
+        <v>461</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="75" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="76"/>
       <c r="B4" s="76"/>
-      <c r="C4" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="C5" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4582,102 +4623,226 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B25" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B27" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B28" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="B30" s="2">
         <v>0.8</v>
       </c>
-      <c r="C14" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.8</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
+  <mergeCells count="6">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4703,28 +4868,28 @@
         <v>6</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="62" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
         <v>0.4</v>
@@ -4740,7 +4905,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>0.375</v>
@@ -4748,7 +4913,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>0.6</v>
@@ -4756,31 +4921,31 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B11" s="3">
         <v>0.4</v>
@@ -4788,7 +4953,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3">
         <v>0.8</v>
@@ -4796,7 +4961,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3">
         <v>0.8</v>
@@ -4804,7 +4969,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3">
         <v>0.8</v>
@@ -4812,7 +4977,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>0.8</v>
@@ -4868,7 +5033,7 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
@@ -4884,130 +5049,130 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="77" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="78"/>
       <c r="B3" s="15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="78"/>
       <c r="B4" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="78" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="78"/>
       <c r="B6" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="78"/>
       <c r="B7" s="15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -5015,16 +5180,16 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="78"/>
       <c r="B8" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="C8" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="90" t="s">
-        <v>254</v>
+        <v>457</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>249</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -5032,171 +5197,171 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="78"/>
       <c r="B9" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
+        <v>458</v>
+      </c>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="76"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="79"/>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5233,49 +5398,49 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="81"/>
+      <c r="C1" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="83"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="75" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="82"/>
+      <c r="A4" s="84"/>
       <c r="B4" s="26" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
@@ -5283,17 +5448,17 @@
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" t="s">
-        <v>271</v>
+      <c r="A5" s="84" t="s">
+        <v>266</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -5301,41 +5466,41 @@
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="82"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="C6" s="60" t="s">
-        <v>262</v>
-      </c>
       <c r="D6" s="61" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="76" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B7" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="D7" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="D7" s="60" t="s">
-        <v>268</v>
-      </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="26" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C8" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="59" t="s">
         <v>264</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
